--- a/razbot_Electronics/razbot_BOM.xlsx
+++ b/razbot_Electronics/razbot_BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>Digi PN</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>FUSE BOARD MNT 5A 63VAC/VDC 1206</t>
+  </si>
+  <si>
+    <t>MOTOR CONNECTORS</t>
   </si>
 </sst>
 </file>
@@ -776,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:J35"/>
+  <dimension ref="B4:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,7 +1195,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="27.75" customHeight="1">
+    <row r="25" spans="2:10" ht="16.5" customHeight="1">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -1440,6 +1443,11 @@
       </c>
       <c r="J35" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/razbot_Electronics/razbot_BOM.xlsx
+++ b/razbot_Electronics/razbot_BOM.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
-  <si>
-    <t>Digi PN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>Desc</t>
   </si>
@@ -400,7 +397,7 @@
     <t>FUSE BOARD MNT 5A 63VAC/VDC 1206</t>
   </si>
   <si>
-    <t>MOTOR CONNECTORS</t>
+    <t>Digikey PN</t>
   </si>
 </sst>
 </file>
@@ -476,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -484,6 +481,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -779,681 +782,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:J37"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
-      <c r="B4" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1206</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5">
+        <v>603</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5">
+        <v>805</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1206</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="5">
+        <v>603</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5">
+        <v>603</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5">
+        <v>603</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="5">
+        <v>603</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="5">
+        <v>603</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="5">
+        <v>603</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="5">
+        <v>603</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5">
+        <v>603</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="5">
+        <v>603</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="5">
+        <v>603</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="5">
+        <v>603</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D25" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="J7" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5">
+        <v>603</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15.75">
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10">
-        <v>1206</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>603</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>805</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14">
-        <v>1206</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15">
-        <v>603</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16">
-        <v>603</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17">
-        <v>603</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18">
-        <v>603</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19">
-        <v>603</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20">
-        <v>603</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21">
-        <v>603</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22">
-        <v>603</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1.44</v>
-      </c>
-      <c r="J24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25">
-        <v>603</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26">
-        <v>603</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="J26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27">
-        <v>603</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29">
-        <v>603</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1.55</v>
-      </c>
-      <c r="J31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
       <c r="C32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="J32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="J33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.76</v>
-      </c>
-      <c r="J34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="G32" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I32" t="s">
         <v>92</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="J35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="http://www.digikey.com/product-detail/en/ATMEGA328P-AUR/ATMEGA328P-AURCT-ND/3789455"/>
-    <hyperlink ref="D9" r:id="rId2" display="http://www.digikey.com/product-detail/en/TXB0102DCUR/296-22862-1-ND/1740009"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://www.digikey.com/product-detail/en/ATMEGA328P-AUR/ATMEGA328P-AURCT-ND/3789455"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://www.digikey.com/product-detail/en/TXB0102DCUR/296-22862-1-ND/1740009"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/razbot_Electronics/razbot_BOM.xlsx
+++ b/razbot_Electronics/razbot_BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t>Desc</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Designator</t>
   </si>
   <si>
-    <t>2 ATMEGA328P-AURCT-ND</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/ATMEGA328P-AUR/ATMEGA328P-AURCT-ND/3789455</t>
   </si>
   <si>
@@ -398,6 +395,72 @@
   </si>
   <si>
     <t>Digikey PN</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AURCT-ND</t>
+  </si>
+  <si>
+    <t>445-12461-1-ND</t>
+  </si>
+  <si>
+    <t>1276-2910-1-ND</t>
+  </si>
+  <si>
+    <t>P5151-ND</t>
+  </si>
+  <si>
+    <t>1276-4853-1-ND</t>
+  </si>
+  <si>
+    <t>1276-5110-1-ND</t>
+  </si>
+  <si>
+    <t>P49.9KHCT-ND</t>
+  </si>
+  <si>
+    <t>1276-4517-1-ND</t>
+  </si>
+  <si>
+    <t>1276-4728-1-ND</t>
+  </si>
+  <si>
+    <t>1276-4806-1-ND</t>
+  </si>
+  <si>
+    <t>1276-3489-1-ND</t>
+  </si>
+  <si>
+    <t>3M9459-ND</t>
+  </si>
+  <si>
+    <t>490-1512-1-ND</t>
+  </si>
+  <si>
+    <t>952-1853-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/ECA-1VM330/P5163-ND/245022</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/RC1608F154CS/1276-4853-1-ND/3967825</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/RC1608J104CS/1276-5110-1-ND/3968082</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/ERJ-3EKF4992V/P49.9KHCT-ND/198413</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/RC1608F270CS/1276-4517-1-ND/3967489</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/RC1608F682CS/1276-4728-1-ND/3967700</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-search/en?KeyWords=3M9459-ND&amp;WT.z_header=search_go</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/M20-7831342/952-1853-ND/3727820</t>
   </si>
 </sst>
 </file>
@@ -473,20 +536,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -782,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="A1:F32"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,7 +859,7 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5" style="4" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
@@ -803,12 +869,12 @@
         <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -831,423 +897,521 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="5">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="9">
         <v>0.45</v>
       </c>
-      <c r="I2" t="s">
-        <v>73</v>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
+      <c r="B3" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="9">
         <v>3.81</v>
       </c>
-      <c r="I3" t="s">
-        <v>72</v>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="5">
+        <v>82</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="9">
         <v>0.36</v>
       </c>
-      <c r="I4" t="s">
-        <v>84</v>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>78</v>
+      <c r="B5" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="9">
         <v>0.94</v>
       </c>
-      <c r="I5" t="s">
-        <v>79</v>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="5">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="9">
         <v>1.2</v>
       </c>
-      <c r="I6" t="s">
-        <v>77</v>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
       <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1206</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="9">
         <v>0.35</v>
       </c>
-      <c r="I7" t="s">
-        <v>104</v>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5">
+      <c r="B8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>603</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5">
+      <c r="B9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>805</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="5">
+        <v>120</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="5">
+        <v>118</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="5">
+        <v>121</v>
+      </c>
+      <c r="F11" s="4">
         <v>1206</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="5">
+        <v>87</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="5">
+        <v>86</v>
+      </c>
+      <c r="F12" s="4">
         <v>603</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="5">
+        <v>111</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>603</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="5">
+        <v>112</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="D14" s="4">
         <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>603</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>603</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>603</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5">
+      <c r="B17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="5">
+        <v>117</v>
+      </c>
+      <c r="F17" s="4">
         <v>603</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5">
+      <c r="B18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>603</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="5">
+      <c r="B19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>603</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="5">
+      <c r="B20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="9">
         <v>1.44</v>
       </c>
-      <c r="I21" t="s">
-        <v>106</v>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="5">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>603</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="9">
         <v>0.1</v>
       </c>
-      <c r="I22" t="s">
-        <v>110</v>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>603</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="9">
         <v>0.48</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1255,203 +1419,228 @@
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="5">
+      <c r="B24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>603</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="5">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4">
         <v>2</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="9">
         <v>1.6</v>
       </c>
-      <c r="I25" t="s">
-        <v>74</v>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>603</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="5">
+      <c r="B27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="9">
+        <v>3.63</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4">
-        <v>1.55</v>
-      </c>
-      <c r="I28" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="9">
         <v>0.42</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="4">
+      <c r="F30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="9">
         <v>0.32</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="9">
         <v>1.76</v>
       </c>
-      <c r="I31" t="s">
-        <v>103</v>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="I32" t="s">
-        <v>92</v>
-      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
